--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/25Sept2013_Xining_Physioflow_X17X21/X19 4200 bosquet replay.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/25Sept2013_Xining_Physioflow_X17X21/X19 4200 bosquet replay.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView windowWidth="11940" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -90,24 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 4200</t>
-  </si>
-  <si>
-    <t>60w</t>
-  </si>
-  <si>
-    <t>120w</t>
-  </si>
-  <si>
-    <t>135w</t>
-  </si>
-  <si>
-    <t>150w</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -153,6 +135,21 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>rest at 4200</t>
+  </si>
+  <si>
+    <t>60w</t>
+  </si>
+  <si>
+    <t>120w</t>
+  </si>
+  <si>
+    <t>135w</t>
+  </si>
+  <si>
+    <t>150w</t>
+  </si>
+  <si>
     <t>submax 1</t>
   </si>
   <si>
@@ -161,29 +158,375 @@
   <si>
     <t>stop, max</t>
   </si>
+  <si>
+    <t>---------------</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -191,20 +534,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -212,6 +844,1162 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smooth"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00150462962962963</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00162037037037037</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.00185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.00208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.00219907407407407</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.00231481481481482</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00243055555555556</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0025462962962963</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.00266203703703704</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.00277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.00590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.00601851851851852</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.00613425925925926</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.00625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>5.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.96</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.78</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.03</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.34</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.69</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.83</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.58</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.76</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.61</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.44</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.73</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.24</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.64</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.62</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.03</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.43</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.64</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.09</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.37</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="170650289"/>
+        <c:axId val="40337063"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="170650289"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40337063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="40337063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="170650289"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>176530</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>427990</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11286490" y="1778000"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,21 +2283,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L40" workbookViewId="0">
-      <selection activeCell="U55" sqref="U4:AI55"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="W55" sqref="W55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -531,7 +2319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -590,52 +2378,52 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="21:35">
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -652,12 +2440,12 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>0.43708333333333332</v>
+        <v>0.437083333333333</v>
       </c>
       <c r="C6">
         <v>88.43</v>
@@ -705,7 +2493,7 @@
         <v>42.17</v>
       </c>
       <c r="S6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -723,15 +2511,15 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>0.000694444444444444</v>
       </c>
       <c r="B7" s="1">
-        <v>0.43777777777777777</v>
+        <v>0.437777777777778</v>
       </c>
       <c r="C7">
-        <v>81.430000000000007</v>
+        <v>81.43</v>
       </c>
       <c r="D7">
         <v>65.02</v>
@@ -791,18 +2579,18 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>8.1018518518518516E-4</v>
+        <v>0.000810185185185185</v>
       </c>
       <c r="B8" s="1">
-        <v>0.43789351851851849</v>
+        <v>0.437893518518518</v>
       </c>
       <c r="C8">
         <v>87.54</v>
       </c>
       <c r="D8">
-        <v>64.430000000000007</v>
+        <v>64.43</v>
       </c>
       <c r="E8">
         <v>5.64</v>
@@ -814,7 +2602,7 @@
         <v>57.11</v>
       </c>
       <c r="H8">
-        <v>316.52999999999997</v>
+        <v>316.53</v>
       </c>
       <c r="I8">
         <v>111.28</v>
@@ -823,7 +2611,7 @@
         <v>107</v>
       </c>
       <c r="K8">
-        <v>64.930000000000007</v>
+        <v>64.93</v>
       </c>
       <c r="L8">
         <v>112.8</v>
@@ -859,18 +2647,18 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>9.2592592592592585E-4</v>
+        <v>0.000925925925925926</v>
       </c>
       <c r="B9" s="1">
-        <v>0.43800925925925926</v>
+        <v>0.438009259259259</v>
       </c>
       <c r="C9">
         <v>90.5</v>
       </c>
       <c r="D9">
-        <v>64.930000000000007</v>
+        <v>64.93</v>
       </c>
       <c r="E9">
         <v>5.88</v>
@@ -882,7 +2670,7 @@
         <v>57.24</v>
       </c>
       <c r="H9">
-        <v>304.52999999999997</v>
+        <v>304.53</v>
       </c>
       <c r="I9">
         <v>112.25</v>
@@ -891,7 +2679,7 @@
         <v>107</v>
       </c>
       <c r="K9">
-        <v>64.069999999999993</v>
+        <v>64.07</v>
       </c>
       <c r="L9">
         <v>113.44</v>
@@ -927,12 +2715,12 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>1.0416666666666667E-3</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="B10" s="1">
-        <v>0.43812500000000004</v>
+        <v>0.438125</v>
       </c>
       <c r="C10">
         <v>90.92</v>
@@ -995,12 +2783,12 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>1.1574074074074073E-3</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="B11" s="1">
-        <v>0.43824074074074071</v>
+        <v>0.438240740740741</v>
       </c>
       <c r="C11">
         <v>90.9</v>
@@ -1018,7 +2806,7 @@
         <v>56.73</v>
       </c>
       <c r="H11">
-        <v>323.47000000000003</v>
+        <v>323.47</v>
       </c>
       <c r="I11">
         <v>108.36</v>
@@ -1063,12 +2851,12 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>1.2731481481481483E-3</v>
+        <v>0.00127314814814815</v>
       </c>
       <c r="B12" s="1">
-        <v>0.43835648148148149</v>
+        <v>0.438356481481481</v>
       </c>
       <c r="C12">
         <v>86</v>
@@ -1131,15 +2919,15 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="B13" s="1">
-        <v>0.43847222222222221</v>
+        <v>0.438472222222222</v>
       </c>
       <c r="C13">
-        <v>80.459999999999994</v>
+        <v>80.46</v>
       </c>
       <c r="D13">
         <v>57.46</v>
@@ -1199,15 +2987,15 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>1.5046296296296294E-3</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="B14" s="1">
-        <v>0.43858796296296299</v>
+        <v>0.438587962962963</v>
       </c>
       <c r="C14">
-        <v>79.959999999999994</v>
+        <v>79.96</v>
       </c>
       <c r="D14">
         <v>60</v>
@@ -1267,15 +3055,15 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>0.00162037037037037</v>
       </c>
       <c r="B15" s="1">
-        <v>0.43870370370370365</v>
+        <v>0.438703703703704</v>
       </c>
       <c r="C15">
-        <v>79.459999999999994</v>
+        <v>79.46</v>
       </c>
       <c r="D15">
         <v>60.92</v>
@@ -1290,7 +3078,7 @@
         <v>55.29</v>
       </c>
       <c r="H15">
-        <v>318.14999999999998</v>
+        <v>318.15</v>
       </c>
       <c r="I15">
         <v>97.72</v>
@@ -1335,21 +3123,21 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>1.736111111111111E-3</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="B16" s="1">
-        <v>0.43881944444444443</v>
+        <v>0.438819444444444</v>
       </c>
       <c r="C16">
-        <v>77.209999999999994</v>
+        <v>77.21</v>
       </c>
       <c r="D16">
         <v>59.03</v>
       </c>
       <c r="E16">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="F16">
         <v>2.65</v>
@@ -1373,7 +3161,7 @@
         <v>106.26</v>
       </c>
       <c r="M16">
-        <v>1255.6500000000001</v>
+        <v>1255.65</v>
       </c>
       <c r="N16">
         <v>2158.86</v>
@@ -1389,71 +3177,71 @@
       </c>
       <c r="U16" s="2">
         <f>AVERAGE(C6:C16)</f>
-        <v>84.800909090909101</v>
+        <v>84.8009090909091</v>
       </c>
       <c r="V16" s="2">
         <f t="shared" ref="V16:AI16" si="0">AVERAGE(D6:D16)</f>
-        <v>61.632727272727266</v>
+        <v>61.6327272727273</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" si="0"/>
-        <v>5.2327272727272733</v>
+        <v>5.23272727272727</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" si="0"/>
-        <v>3.0445454545454549</v>
+        <v>3.04454545454545</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="0"/>
-        <v>56.445454545454545</v>
+        <v>56.4454545454545</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="0"/>
-        <v>325.76636363636362</v>
+        <v>325.766363636364</v>
       </c>
       <c r="AA16" s="2">
         <f t="shared" si="0"/>
-        <v>106.27090909090909</v>
+        <v>106.270909090909</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="0"/>
-        <v>106.16363636363636</v>
+        <v>106.163636363636</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="0"/>
-        <v>65.628181818181815</v>
+        <v>65.6281818181818</v>
       </c>
       <c r="AD16" s="2">
         <f t="shared" si="0"/>
-        <v>109.15727272727273</v>
+        <v>109.157272727273</v>
       </c>
       <c r="AE16" s="2">
         <f t="shared" si="0"/>
-        <v>1120.0672727272727</v>
+        <v>1120.06727272727</v>
       </c>
       <c r="AF16" s="2">
         <f t="shared" si="0"/>
-        <v>1925.7472727272727</v>
+        <v>1925.74727272727</v>
       </c>
       <c r="AG16" s="2">
         <f t="shared" si="0"/>
-        <v>3.0518181818181818</v>
+        <v>3.05181818181818</v>
       </c>
       <c r="AH16" s="2">
         <f t="shared" si="0"/>
-        <v>106.97727272727273</v>
+        <v>106.977272727273</v>
       </c>
       <c r="AI16" s="2">
         <f t="shared" si="0"/>
-        <v>43.410909090909087</v>
+        <v>43.4109090909091</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>1.8518518518518517E-3</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="B17" s="1">
-        <v>0.43893518518518521</v>
+        <v>0.438935185185185</v>
       </c>
       <c r="C17">
         <v>82.46</v>
@@ -1480,7 +3268,7 @@
         <v>105</v>
       </c>
       <c r="K17">
-        <v>64.930000000000007</v>
+        <v>64.93</v>
       </c>
       <c r="L17">
         <v>102.31</v>
@@ -1516,12 +3304,12 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>1.9675925925925928E-3</v>
+        <v>0.00196759259259259</v>
       </c>
       <c r="B18" s="1">
-        <v>0.43905092592592593</v>
+        <v>0.439050925925926</v>
       </c>
       <c r="C18">
         <v>86.71</v>
@@ -1569,7 +3357,7 @@
         <v>44.6</v>
       </c>
       <c r="S18" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -1587,12 +3375,12 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>0.00208333333333333</v>
       </c>
       <c r="B19" s="1">
-        <v>0.43916666666666665</v>
+        <v>0.439166666666667</v>
       </c>
       <c r="C19">
         <v>90.47</v>
@@ -1655,12 +3443,12 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>2.1990740740740742E-3</v>
+        <v>0.00219907407407407</v>
       </c>
       <c r="B20" s="1">
-        <v>0.43928240740740737</v>
+        <v>0.439282407407407</v>
       </c>
       <c r="C20">
         <v>108.11</v>
@@ -1723,18 +3511,18 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>2.3148148148148151E-3</v>
+        <v>0.00231481481481482</v>
       </c>
       <c r="B21" s="1">
-        <v>0.43939814814814815</v>
+        <v>0.439398148148148</v>
       </c>
       <c r="C21">
         <v>113.49</v>
       </c>
       <c r="D21">
-        <v>68.760000000000005</v>
+        <v>68.76</v>
       </c>
       <c r="E21">
         <v>7.81</v>
@@ -1764,7 +3552,7 @@
         <v>696.12</v>
       </c>
       <c r="N21">
-        <v>1196.8399999999999</v>
+        <v>1196.84</v>
       </c>
       <c r="O21">
         <v>4.24</v>
@@ -1791,18 +3579,18 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>2.4305555555555556E-3</v>
+        <v>0.00243055555555556</v>
       </c>
       <c r="B22" s="1">
-        <v>0.43951388888888893</v>
+        <v>0.439513888888889</v>
       </c>
       <c r="C22">
         <v>110.87</v>
       </c>
       <c r="D22">
-        <v>70.510000000000005</v>
+        <v>70.51</v>
       </c>
       <c r="E22">
         <v>7.81</v>
@@ -1814,7 +3602,7 @@
         <v>60.15</v>
       </c>
       <c r="H22">
-        <v>259.77999999999997</v>
+        <v>259.78</v>
       </c>
       <c r="I22">
         <v>136.9</v>
@@ -1859,12 +3647,12 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>2.5462962962962961E-3</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="B23" s="1">
-        <v>0.43962962962962965</v>
+        <v>0.43962962962963</v>
       </c>
       <c r="C23">
         <v>116.49</v>
@@ -1900,7 +3688,7 @@
         <v>642.77</v>
       </c>
       <c r="N23">
-        <v>1105.1099999999999</v>
+        <v>1105.11</v>
       </c>
       <c r="O23">
         <v>4.84</v>
@@ -1927,12 +3715,12 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>0.00266203703703704</v>
       </c>
       <c r="B24" s="1">
-        <v>0.43974537037037037</v>
+        <v>0.43974537037037</v>
       </c>
       <c r="C24">
         <v>118.55</v>
@@ -1941,7 +3729,7 @@
         <v>75.62</v>
       </c>
       <c r="E24">
-        <v>8.9600000000000009</v>
+        <v>8.96</v>
       </c>
       <c r="F24">
         <v>5.21</v>
@@ -1995,24 +3783,24 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="B25" s="1">
-        <v>0.43986111111111109</v>
+        <v>0.439861111111111</v>
       </c>
       <c r="C25">
         <v>113.71</v>
       </c>
       <c r="D25">
-        <v>77.099999999999994</v>
+        <v>77.1</v>
       </c>
       <c r="E25">
         <v>8.76</v>
       </c>
       <c r="F25">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="G25">
         <v>61.3</v>
@@ -2021,7 +3809,7 @@
         <v>245.68</v>
       </c>
       <c r="I25">
-        <v>147.69999999999999</v>
+        <v>147.7</v>
       </c>
       <c r="J25">
         <v>112.95</v>
@@ -2063,12 +3851,12 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B26" s="1">
-        <v>0.43997685185185187</v>
+        <v>0.439976851851852</v>
       </c>
       <c r="C26">
         <v>117.56</v>
@@ -2077,10 +3865,10 @@
         <v>74.72</v>
       </c>
       <c r="E26">
-        <v>8.7799999999999994</v>
+        <v>8.78</v>
       </c>
       <c r="F26">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="G26">
         <v>60.76</v>
@@ -2104,10 +3892,10 @@
         <v>629.11</v>
       </c>
       <c r="N26">
-        <v>1081.6400000000001</v>
+        <v>1081.64</v>
       </c>
       <c r="O26">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="P26">
         <v>107.59</v>
@@ -2131,18 +3919,18 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B27" s="1">
-        <v>0.44009259259259265</v>
+        <v>0.440092592592593</v>
       </c>
       <c r="C27">
         <v>117.2</v>
       </c>
       <c r="D27">
-        <v>78.790000000000006</v>
+        <v>78.79</v>
       </c>
       <c r="E27">
         <v>9.24</v>
@@ -2172,7 +3960,7 @@
         <v>603.96</v>
       </c>
       <c r="N27">
-        <v>1038.4000000000001</v>
+        <v>1038.4</v>
       </c>
       <c r="O27">
         <v>5.16</v>
@@ -2199,12 +3987,12 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B28" s="1">
-        <v>0.44020833333333331</v>
+        <v>0.440208333333333</v>
       </c>
       <c r="C28">
         <v>118.08</v>
@@ -2213,7 +4001,7 @@
         <v>78.72</v>
       </c>
       <c r="E28">
-        <v>9.2899999999999991</v>
+        <v>9.29</v>
       </c>
       <c r="F28">
         <v>5.41</v>
@@ -2237,7 +4025,7 @@
         <v>127.57</v>
       </c>
       <c r="M28">
-        <v>599.54999999999995</v>
+        <v>599.55</v>
       </c>
       <c r="N28">
         <v>1030.82</v>
@@ -2267,12 +4055,12 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B29" s="1">
-        <v>0.44032407407407409</v>
+        <v>0.440324074074074</v>
       </c>
       <c r="C29">
         <v>119.28</v>
@@ -2281,7 +4069,7 @@
         <v>77.16</v>
       </c>
       <c r="E29">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="F29">
         <v>5.35</v>
@@ -2311,7 +4099,7 @@
         <v>1036.52</v>
       </c>
       <c r="O29">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="P29">
         <v>114.17</v>
@@ -2335,21 +4123,21 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B30" s="1">
-        <v>0.44043981481481481</v>
+        <v>0.440439814814815</v>
       </c>
       <c r="C30">
         <v>119.81</v>
       </c>
       <c r="D30">
-        <v>75.430000000000007</v>
+        <v>75.43</v>
       </c>
       <c r="E30">
-        <v>9.0299999999999994</v>
+        <v>9.03</v>
       </c>
       <c r="F30">
         <v>5.25</v>
@@ -2361,7 +4149,7 @@
         <v>247.4</v>
       </c>
       <c r="I30">
-        <v>145.80000000000001</v>
+        <v>145.8</v>
       </c>
       <c r="J30">
         <v>113.05</v>
@@ -2376,10 +4164,10 @@
         <v>614.25</v>
       </c>
       <c r="N30">
-        <v>1056.0899999999999</v>
+        <v>1056.09</v>
       </c>
       <c r="O30">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="P30">
         <v>111.73</v>
@@ -2403,18 +4191,18 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B31" s="1">
-        <v>0.44055555555555559</v>
+        <v>0.440555555555556</v>
       </c>
       <c r="C31">
         <v>122.41</v>
       </c>
       <c r="D31">
-        <v>76.260000000000005</v>
+        <v>76.26</v>
       </c>
       <c r="E31">
         <v>9.34</v>
@@ -2429,7 +4217,7 @@
         <v>242.4</v>
       </c>
       <c r="I31">
-        <v>152.19999999999999</v>
+        <v>152.2</v>
       </c>
       <c r="J31">
         <v>113.95</v>
@@ -2471,12 +4259,12 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B32" s="1">
-        <v>0.44067129629629626</v>
+        <v>0.440671296296296</v>
       </c>
       <c r="C32">
         <v>124.57</v>
@@ -2497,7 +4285,7 @@
         <v>239.62</v>
       </c>
       <c r="I32">
-        <v>149.27000000000001</v>
+        <v>149.27</v>
       </c>
       <c r="J32">
         <v>113.1</v>
@@ -2509,7 +4297,7 @@
         <v>126.55</v>
       </c>
       <c r="M32">
-        <v>567.80999999999995</v>
+        <v>567.81</v>
       </c>
       <c r="N32">
         <v>976.24</v>
@@ -2539,18 +4327,18 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B33" s="1">
-        <v>0.44078703703703703</v>
+        <v>0.440787037037037</v>
       </c>
       <c r="C33">
         <v>125.76</v>
       </c>
       <c r="D33">
-        <v>81.040000000000006</v>
+        <v>81.04</v>
       </c>
       <c r="E33">
         <v>10.19</v>
@@ -2565,7 +4353,7 @@
         <v>241.33</v>
       </c>
       <c r="I33">
-        <v>156.61000000000001</v>
+        <v>156.61</v>
       </c>
       <c r="J33">
         <v>115</v>
@@ -2607,18 +4395,18 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B34" s="1">
-        <v>0.44090277777777781</v>
+        <v>0.440902777777778</v>
       </c>
       <c r="C34">
         <v>122.2</v>
       </c>
       <c r="D34">
-        <v>80.459999999999994</v>
+        <v>80.46</v>
       </c>
       <c r="E34">
         <v>9.83</v>
@@ -2675,18 +4463,18 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B35" s="1">
-        <v>0.44101851851851853</v>
+        <v>0.441018518518519</v>
       </c>
       <c r="C35">
         <v>128.62</v>
       </c>
       <c r="D35">
-        <v>80.760000000000005</v>
+        <v>80.76</v>
       </c>
       <c r="E35">
         <v>10.39</v>
@@ -2701,7 +4489,7 @@
         <v>230.73</v>
       </c>
       <c r="I35">
-        <v>155.16999999999999</v>
+        <v>155.17</v>
       </c>
       <c r="J35">
         <v>114.05</v>
@@ -2743,12 +4531,12 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B36" s="1">
-        <v>0.44113425925925925</v>
+        <v>0.441134259259259</v>
       </c>
       <c r="C36">
         <v>128.81</v>
@@ -2769,7 +4557,7 @@
         <v>228.95</v>
       </c>
       <c r="I36">
-        <v>157.97999999999999</v>
+        <v>157.98</v>
       </c>
       <c r="J36">
         <v>115.14</v>
@@ -2778,7 +4566,7 @@
         <v>56.05</v>
       </c>
       <c r="L36">
-        <v>131.83000000000001</v>
+        <v>131.83</v>
       </c>
       <c r="M36">
         <v>520.14</v>
@@ -2796,7 +4584,7 @@
         <v>52.23</v>
       </c>
       <c r="S36" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
@@ -2814,12 +4602,12 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B37" s="1">
-        <v>0.44124999999999998</v>
+        <v>0.44125</v>
       </c>
       <c r="C37">
         <v>127.92</v>
@@ -2849,7 +4637,7 @@
         <v>56.86</v>
       </c>
       <c r="L37">
-        <v>131.13999999999999</v>
+        <v>131.14</v>
       </c>
       <c r="M37">
         <v>522.51</v>
@@ -2882,12 +4670,12 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B38" s="1">
-        <v>0.44136574074074075</v>
+        <v>0.441365740740741</v>
       </c>
       <c r="C38">
         <v>132.65</v>
@@ -2908,7 +4696,7 @@
         <v>213.22</v>
       </c>
       <c r="I38">
-        <v>155.41999999999999</v>
+        <v>155.42</v>
       </c>
       <c r="J38">
         <v>114.17</v>
@@ -2950,12 +4738,12 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B39" s="1">
-        <v>0.44148148148148153</v>
+        <v>0.441481481481482</v>
       </c>
       <c r="C39">
         <v>138.13</v>
@@ -2985,7 +4773,7 @@
         <v>55</v>
       </c>
       <c r="L39">
-        <v>132.13999999999999</v>
+        <v>132.14</v>
       </c>
       <c r="M39">
         <v>477.82</v>
@@ -3018,15 +4806,15 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B40" s="1">
-        <v>0.4415972222222222</v>
+        <v>0.441597222222222</v>
       </c>
       <c r="C40">
-        <v>140.72999999999999</v>
+        <v>140.73</v>
       </c>
       <c r="D40">
         <v>85.87</v>
@@ -3086,12 +4874,12 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B41" s="1">
-        <v>0.44171296296296297</v>
+        <v>0.441712962962963</v>
       </c>
       <c r="C41">
         <v>142.88</v>
@@ -3139,7 +4927,7 @@
         <v>58.08</v>
       </c>
       <c r="S41" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
@@ -3157,18 +4945,18 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B42" s="1">
-        <v>0.4418287037037037</v>
+        <v>0.441828703703704</v>
       </c>
       <c r="C42">
         <v>143.96</v>
       </c>
       <c r="D42">
-        <v>81.510000000000005</v>
+        <v>81.51</v>
       </c>
       <c r="E42">
         <v>11.73</v>
@@ -3225,15 +5013,15 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B43" s="1">
-        <v>0.44194444444444447</v>
+        <v>0.441944444444444</v>
       </c>
       <c r="C43">
-        <v>146.41999999999999</v>
+        <v>146.42</v>
       </c>
       <c r="D43">
         <v>80.22</v>
@@ -3293,12 +5081,12 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B44" s="1">
-        <v>0.44206018518518514</v>
+        <v>0.442060185185185</v>
       </c>
       <c r="C44">
         <v>147.9</v>
@@ -3361,18 +5149,18 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B45" s="1">
-        <v>0.44217592592592592</v>
+        <v>0.442175925925926</v>
       </c>
       <c r="C45">
         <v>150.13</v>
       </c>
       <c r="D45">
-        <v>72.930000000000007</v>
+        <v>72.93</v>
       </c>
       <c r="E45">
         <v>10.95</v>
@@ -3387,7 +5175,7 @@
         <v>221.76</v>
       </c>
       <c r="I45">
-        <v>134.61000000000001</v>
+        <v>134.61</v>
       </c>
       <c r="J45">
         <v>110.08</v>
@@ -3429,12 +5217,12 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B46" s="1">
-        <v>0.44229166666666669</v>
+        <v>0.442291666666667</v>
       </c>
       <c r="C46">
         <v>152.09</v>
@@ -3497,18 +5285,18 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B47" s="1">
-        <v>0.44240740740740742</v>
+        <v>0.442407407407407</v>
       </c>
       <c r="C47">
-        <v>154.91999999999999</v>
+        <v>154.92</v>
       </c>
       <c r="D47">
-        <v>73.040000000000006</v>
+        <v>73.04</v>
       </c>
       <c r="E47">
         <v>11.32</v>
@@ -3523,7 +5311,7 @@
         <v>218.62</v>
       </c>
       <c r="I47">
-        <v>148.91999999999999</v>
+        <v>148.92</v>
       </c>
       <c r="J47">
         <v>112.96</v>
@@ -3565,12 +5353,12 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B48" s="1">
-        <v>0.44252314814814814</v>
+        <v>0.442523148148148</v>
       </c>
       <c r="C48">
         <v>158.04</v>
@@ -3618,7 +5406,7 @@
         <v>37.19</v>
       </c>
       <c r="S48" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
@@ -3636,18 +5424,18 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B49" s="1">
-        <v>0.44263888888888886</v>
+        <v>0.442638888888889</v>
       </c>
       <c r="C49">
         <v>159.03</v>
       </c>
       <c r="D49">
-        <v>73.069999999999993</v>
+        <v>73.07</v>
       </c>
       <c r="E49">
         <v>11.62</v>
@@ -3662,7 +5450,7 @@
         <v>238.96</v>
       </c>
       <c r="I49">
-        <v>140.16999999999999</v>
+        <v>140.17</v>
       </c>
       <c r="J49">
         <v>110.93</v>
@@ -3689,11 +5477,11 @@
         <v>42.34</v>
       </c>
       <c r="S49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U49" s="2">
         <f>AVERAGE(C43:C49)</f>
-        <v>152.64714285714285</v>
+        <v>152.647142857143</v>
       </c>
       <c r="V49" s="2">
         <f t="shared" ref="V49:AI49" si="1">AVERAGE(D43:D49)</f>
@@ -3701,11 +5489,11 @@
       </c>
       <c r="W49" s="2">
         <f t="shared" si="1"/>
-        <v>11.385714285714286</v>
+        <v>11.3857142857143</v>
       </c>
       <c r="X49" s="2">
         <f t="shared" si="1"/>
-        <v>6.6228571428571419</v>
+        <v>6.62285714285714</v>
       </c>
       <c r="Y49" s="2">
         <f t="shared" si="1"/>
@@ -3713,15 +5501,15 @@
       </c>
       <c r="Z49" s="2">
         <f t="shared" si="1"/>
-        <v>228.14571428571429</v>
+        <v>228.145714285714</v>
       </c>
       <c r="AA49" s="2">
         <f t="shared" si="1"/>
-        <v>140.37142857142857</v>
+        <v>140.371428571429</v>
       </c>
       <c r="AB49" s="2">
         <f t="shared" si="1"/>
-        <v>111.27000000000001</v>
+        <v>111.27</v>
       </c>
       <c r="AC49" s="2">
         <f t="shared" si="1"/>
@@ -3729,38 +5517,38 @@
       </c>
       <c r="AD49" s="2">
         <f t="shared" si="1"/>
-        <v>123.38285714285713</v>
+        <v>123.382857142857</v>
       </c>
       <c r="AE49" s="2">
         <f t="shared" si="1"/>
-        <v>469.51000000000005</v>
+        <v>469.51</v>
       </c>
       <c r="AF49" s="2">
         <f t="shared" si="1"/>
-        <v>807.23285714285703</v>
+        <v>807.232857142857</v>
       </c>
       <c r="AG49" s="2">
         <f t="shared" si="1"/>
-        <v>6.0799999999999992</v>
+        <v>6.08</v>
       </c>
       <c r="AH49" s="2">
         <f t="shared" si="1"/>
-        <v>92.401428571428568</v>
+        <v>92.4014285714286</v>
       </c>
       <c r="AI49" s="2">
         <f t="shared" si="1"/>
-        <v>47.744285714285716</v>
+        <v>47.7442857142857</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B50" s="1">
-        <v>0.44275462962962964</v>
+        <v>0.44275462962963</v>
       </c>
       <c r="C50">
-        <v>160.72999999999999</v>
+        <v>160.73</v>
       </c>
       <c r="D50">
         <v>74.81</v>
@@ -3778,7 +5566,7 @@
         <v>266.81</v>
       </c>
       <c r="I50">
-        <v>140.58000000000001</v>
+        <v>140.58</v>
       </c>
       <c r="J50">
         <v>110.15</v>
@@ -3820,18 +5608,18 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B51" s="1">
-        <v>0.44287037037037041</v>
+        <v>0.44287037037037</v>
       </c>
       <c r="C51">
         <v>163.07</v>
       </c>
       <c r="D51">
-        <v>76.239999999999995</v>
+        <v>76.24</v>
       </c>
       <c r="E51">
         <v>12.43</v>
@@ -3846,7 +5634,7 @@
         <v>273.93</v>
       </c>
       <c r="I51">
-        <v>144.72999999999999</v>
+        <v>144.73</v>
       </c>
       <c r="J51">
         <v>111.7</v>
@@ -3888,18 +5676,18 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>0.00590277777777778</v>
       </c>
       <c r="B52" s="1">
-        <v>0.44298611111111108</v>
+        <v>0.442986111111111</v>
       </c>
       <c r="C52">
         <v>165.35</v>
       </c>
       <c r="D52">
-        <v>76.400000000000006</v>
+        <v>76.4</v>
       </c>
       <c r="E52">
         <v>12.64</v>
@@ -3941,11 +5729,11 @@
         <v>51.24</v>
       </c>
       <c r="S52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U52" s="2">
         <f>AVERAGE(C49:C52)</f>
-        <v>162.04499999999999</v>
+        <v>162.045</v>
       </c>
       <c r="V52" s="2">
         <f t="shared" ref="V52:AI52" si="2">AVERAGE(D49:D52)</f>
@@ -3957,7 +5745,7 @@
       </c>
       <c r="X52" s="2">
         <f t="shared" si="2"/>
-        <v>7.0824999999999996</v>
+        <v>7.0825</v>
       </c>
       <c r="Y52" s="2">
         <f t="shared" si="2"/>
@@ -3969,7 +5757,7 @@
       </c>
       <c r="AA52" s="2">
         <f t="shared" si="2"/>
-        <v>137.92750000000001</v>
+        <v>137.9275</v>
       </c>
       <c r="AB52" s="2">
         <f t="shared" si="2"/>
@@ -3977,45 +5765,45 @@
       </c>
       <c r="AC52" s="2">
         <f t="shared" si="2"/>
-        <v>54.202500000000001</v>
+        <v>54.2025</v>
       </c>
       <c r="AD52" s="2">
         <f t="shared" si="2"/>
-        <v>124.78749999999999</v>
+        <v>124.7875</v>
       </c>
       <c r="AE52" s="2">
         <f t="shared" si="2"/>
-        <v>433.59000000000003</v>
+        <v>433.59</v>
       </c>
       <c r="AF52" s="2">
         <f t="shared" si="2"/>
-        <v>745.47250000000008</v>
+        <v>745.4725</v>
       </c>
       <c r="AG52" s="2">
         <f t="shared" si="2"/>
-        <v>6.4075000000000006</v>
+        <v>6.4075</v>
       </c>
       <c r="AH52" s="2">
         <f t="shared" si="2"/>
-        <v>89.554999999999993</v>
+        <v>89.555</v>
       </c>
       <c r="AI52" s="2">
         <f t="shared" si="2"/>
-        <v>41.762500000000003</v>
+        <v>41.7625</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>6.0185185185185177E-3</v>
+        <v>0.00601851851851852</v>
       </c>
       <c r="B53" s="1">
-        <v>0.44310185185185186</v>
+        <v>0.443101851851852</v>
       </c>
       <c r="C53">
         <v>167.11</v>
       </c>
       <c r="D53">
-        <v>72.319999999999993</v>
+        <v>72.32</v>
       </c>
       <c r="E53">
         <v>12.09</v>
@@ -4072,15 +5860,15 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>6.1342592592592594E-3</v>
+        <v>0.00613425925925926</v>
       </c>
       <c r="B54" s="1">
-        <v>0.44321759259259258</v>
+        <v>0.443217592592593</v>
       </c>
       <c r="C54">
-        <v>152.66999999999999</v>
+        <v>152.67</v>
       </c>
       <c r="D54">
         <v>74.47</v>
@@ -4140,18 +5928,18 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>0.00625</v>
       </c>
       <c r="B55" s="1">
-        <v>0.44333333333333336</v>
+        <v>0.443333333333333</v>
       </c>
       <c r="C55">
         <v>149.54</v>
       </c>
       <c r="D55">
-        <v>78.319999999999993</v>
+        <v>78.32</v>
       </c>
       <c r="E55">
         <v>11.71</v>
@@ -4163,7 +5951,7 @@
         <v>63.6</v>
       </c>
       <c r="H55">
-        <v>325.27999999999997</v>
+        <v>325.28</v>
       </c>
       <c r="I55">
         <v>171.12</v>
@@ -4190,30 +5978,30 @@
         <v>103.87</v>
       </c>
       <c r="Q55">
-        <v>40.090000000000003</v>
+        <v>40.09</v>
       </c>
       <c r="S55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U55" s="2">
         <f>AVERAGE(C52:C55)</f>
-        <v>158.66749999999999</v>
+        <v>158.6675</v>
       </c>
       <c r="V55" s="2">
         <f t="shared" ref="V55:AI55" si="3">AVERAGE(D52:D55)</f>
-        <v>75.377499999999998</v>
+        <v>75.3775</v>
       </c>
       <c r="W55" s="2">
-        <f t="shared" si="3"/>
-        <v>11.952500000000001</v>
+        <f>AVERAGE(E50:E53)</f>
+        <v>12.2975</v>
       </c>
       <c r="X55" s="2">
         <f t="shared" si="3"/>
-        <v>6.9499999999999993</v>
+        <v>6.95</v>
       </c>
       <c r="Y55" s="2">
         <f t="shared" si="3"/>
-        <v>59.972499999999997</v>
+        <v>59.9725</v>
       </c>
       <c r="Z55" s="2">
         <f t="shared" si="3"/>
@@ -4221,71 +6009,81 @@
       </c>
       <c r="AA55" s="2">
         <f t="shared" si="3"/>
-        <v>136.85249999999999</v>
+        <v>136.8525</v>
       </c>
       <c r="AB55" s="2">
         <f t="shared" si="3"/>
-        <v>109.19499999999999</v>
+        <v>109.195</v>
       </c>
       <c r="AC55" s="2">
         <f t="shared" si="3"/>
-        <v>54.335000000000001</v>
+        <v>54.335</v>
       </c>
       <c r="AD55" s="2">
         <f t="shared" si="3"/>
-        <v>125.78999999999999</v>
+        <v>125.79</v>
       </c>
       <c r="AE55" s="2">
         <f t="shared" si="3"/>
-        <v>440.54750000000001</v>
+        <v>440.5475</v>
       </c>
       <c r="AF55" s="2">
         <f t="shared" si="3"/>
-        <v>757.43750000000011</v>
+        <v>757.4375</v>
       </c>
       <c r="AG55" s="2">
         <f t="shared" si="3"/>
-        <v>6.2650000000000006</v>
+        <v>6.265</v>
       </c>
       <c r="AH55" s="2">
         <f t="shared" si="3"/>
-        <v>91.392500000000013</v>
+        <v>91.3925</v>
       </c>
       <c r="AI55" s="2">
         <f t="shared" si="3"/>
-        <v>45.365000000000002</v>
+        <v>45.365</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>